--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1679146.328330892</v>
+        <v>1783325.962781964</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>287.7971664995887</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -713,16 +715,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>220.1612211844843</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>108.1663438184763</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>131.9914911358488</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.36462695393381</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>88.80286948657522</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1032,7 +1034,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>32.55354698821687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>78.6612993941966</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>52.90622424463385</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>345.807931761516</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>273.1866964142702</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>115.7836655003854</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>66.12869588328088</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,16 +1584,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892372</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>21.35866177150499</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>109.5557012899555</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>60.32297266393989</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>32.44181015857257</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>69.8338891078543</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107.7122866515521</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710055</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881307</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.3923706291108</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>167.118233741783</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457619</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>175.4157349343468</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428088</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012176</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174095</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>237.2923699098709</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>148.0280580960835</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,10 +3799,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174105</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922784</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>176.76214411214</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>79.1153231220529</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>156.3923706291042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4361,19 +4363,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2786.952333616968</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2786.952333616968</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W2" t="n">
-        <v>2434.183678346854</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X2" t="n">
-        <v>2434.183678346854</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2635.871647259408</v>
       </c>
     </row>
     <row r="3">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>472.1048757766374</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8459426266613</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>349.9534943655786</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201675</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.1048757766374</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>2034.604709474941</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1665.642192534529</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218339</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218339</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218339</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>798.1741778805439</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>576.4075624500699</v>
+        <v>649.7452636710752</v>
       </c>
       <c r="U7" t="n">
-        <v>287.3046955757135</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="V7" t="n">
-        <v>287.3046955757135</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="W7" t="n">
-        <v>287.3046955757135</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="X7" t="n">
-        <v>287.3046955757135</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218339</v>
+        <v>360.6423967967187</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3066.187443443257</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2735.124556099686</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2382.355900829572</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906802</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>729.201121645011</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>729.201121645011</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>453.2549636507987</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>453.2549636507987</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W10" t="n">
-        <v>163.8377936138381</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X10" t="n">
-        <v>163.8377936138381</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913858</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211833</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>996.527639843984</v>
       </c>
       <c r="C13" t="n">
         <v>929.7309773356195</v>
@@ -5194,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817754</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1398.968683817754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1178.176104674224</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,37 +5293,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1955.886674680705</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,34 +5530,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.5010142286973</v>
+        <v>3052.912304341663</v>
       </c>
       <c r="C22" t="n">
-        <v>748.5648313007904</v>
+        <v>2883.976121413757</v>
       </c>
       <c r="D22" t="n">
-        <v>748.5648313007904</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="E22" t="n">
-        <v>600.6517377183973</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F22" t="n">
-        <v>453.7617902204869</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G22" t="n">
-        <v>286.5656909353668</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>4227.444557456298</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>3972.760069250411</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>3683.34289921345</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>3455.353348315433</v>
       </c>
       <c r="Y22" t="n">
-        <v>1099.149479058937</v>
+        <v>3234.560769171903</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6071,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.5467179762953</v>
+        <v>3194.624135499465</v>
       </c>
       <c r="C25" t="n">
-        <v>815.6105350483884</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D25" t="n">
-        <v>665.4938956360527</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E25" t="n">
-        <v>517.5808020536596</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>4437.439036126372</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>4148.36380947057</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>3893.679321264683</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>3604.262151227723</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>3376.272600329705</v>
       </c>
       <c r="Y25" t="n">
-        <v>1166.195182806535</v>
+        <v>3376.272600329705</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803939</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438167</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6379,55 +6381,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602305</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396418</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614396</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179095</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,49 +6451,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756267</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021788</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>538.7363435406114</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406114</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282756</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458824</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2221.945288288107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1169.166938412399</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X31" t="n">
-        <v>941.1773875143813</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y31" t="n">
-        <v>720.3848083708511</v>
+        <v>816.1129388983999</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,19 +6715,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756267</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969299</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>631.7012443408911</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>631.7012443408911</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408911</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408911</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429806</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578604</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1034.142288314661</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>813.3497091711309</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,22 +6952,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -6974,13 +6976,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400706</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121636</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270435</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138407</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703105</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>4653.44695754965</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2897.617548589219</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>2728.681365661313</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>2728.681365661313</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>3528.048143461007</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>3300.058592562989</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>3079.266013419459</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,52 +7402,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111677</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075772</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332384</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7476,28 +7478,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311461</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032392</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934909034</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934909034</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934909034</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614394</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7715,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851608</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797183</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782885</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038271</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797674</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910802</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279796</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832656</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832656</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855598</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199796</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993909</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956948</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058931</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154005</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>101.118125215347</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>264.8258126177391</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>30.73901155626837</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>225.8615017253043</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>112.9792378643587</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>147.571561219434</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.11969353038521</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>135.8503182118947</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185656</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.63391537253383</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>119.404764594808</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012176</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>50.29392045469049</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25214,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194309</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>48.89210447937322</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>138.4949402405076</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185656</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.469330230042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>10.85445046952364</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.3058620401</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881711.3058620398</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>881711.3058620398</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907542</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907538</v>
@@ -26350,10 +26352,10 @@
         <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.461807356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26442,19 +26444,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186719</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186719</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186719</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186701</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26491,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.235734647</v>
+        <v>-976072.2357346469</v>
       </c>
       <c r="C6" t="n">
         <v>352672.5099929457</v>
@@ -26528,40 +26530,40 @@
         <v>352672.5099929458</v>
       </c>
       <c r="E6" t="n">
-        <v>103462.2671176242</v>
+        <v>103462.2671176237</v>
       </c>
       <c r="F6" t="n">
-        <v>428874.7289249795</v>
+        <v>428874.7289249806</v>
       </c>
       <c r="G6" t="n">
+        <v>428874.7289249794</v>
+      </c>
+      <c r="H6" t="n">
         <v>428874.7289249796</v>
       </c>
-      <c r="H6" t="n">
-        <v>428874.7289249795</v>
-      </c>
       <c r="I6" t="n">
-        <v>428874.7289249796</v>
+        <v>428874.7289249794</v>
       </c>
       <c r="J6" t="n">
         <v>211343.5265277019</v>
       </c>
       <c r="K6" t="n">
-        <v>428874.7289249797</v>
+        <v>428874.7289249795</v>
       </c>
       <c r="L6" t="n">
-        <v>428874.72892498</v>
+        <v>428874.7289249795</v>
       </c>
       <c r="M6" t="n">
-        <v>343819.7009894676</v>
+        <v>343819.7009894673</v>
       </c>
       <c r="N6" t="n">
+        <v>428874.7289249794</v>
+      </c>
+      <c r="O6" t="n">
         <v>428874.7289249796</v>
       </c>
-      <c r="O6" t="n">
-        <v>428874.7289249797</v>
-      </c>
       <c r="P6" t="n">
-        <v>428874.7289249797</v>
+        <v>428874.7289249793</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>94.93667516389183</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>30.8339507744177</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.08047728015151</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>93.71816425318832</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.3692147095468</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>265.8801721341077</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>157.215478343225</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>140.8876498819726</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>198.0889477142681</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.4300068945376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>13.02514179134272</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>102.8009878517094</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28302,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950803</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>602.8420149078231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647489</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107737</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>368.6279838366843</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189571</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043693</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565758</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>37.76383318075003</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640635</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.5003028244898</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427306</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010451</v>
@@ -37242,10 +37244,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663293</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37479,10 +37481,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>237.286271753351</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396381</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969388</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902372</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121313</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629461</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783325.962781964</v>
+        <v>1779313.352767971</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.7971664995887</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -715,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>23.79925355567548</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>131.9914911358488</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>37.67709528776665</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>187.9685985371972</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>88.80286948657522</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1025,7 +1025,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1034,7 +1034,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>78.6612993941966</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>52.90622424463385</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>72.11102768971648</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37422363854175</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>115.7836655003854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>66.12869588328088</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892372</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>28.42659968729146</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>21.35866177150499</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>60.32297266393989</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>69.8338891078543</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>45.17596778974989</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>80.5697888787481</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>171.4144753991464</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>167.118233741783</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325716724</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>237.2923699098709</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>176.76214411214</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259408</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y2" t="n">
-        <v>2635.871647259408</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080142</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445192</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4497,43 +4497,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>349.9534943655786</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>216.6287558445192</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.6287558445192</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2034.604709474941</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1665.642192534529</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474941</v>
+        <v>2535.034709923659</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>360.6423967967187</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>360.6423967967187</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>649.7452636710752</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>360.6423967967187</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>360.6423967967187</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>360.6423967967187</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>360.6423967967187</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>360.6423967967187</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.187443443257</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.124556099686</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.355900829572</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.890142568492</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.75081059268</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>853.8423354762236</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>853.8423354762236</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>853.8423354762236</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>564.7394686018672</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757129</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757129</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.1033511005761</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913858</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417938</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972545</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211833</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>996.527639843984</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854714</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854714</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817754</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1398.968683817754</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1178.176104674224</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>289.7264993909621</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>122.530400105842</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>122.530400105842</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5506,55 +5506,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3052.912304341663</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2883.976121413757</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4227.444557456298</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3972.760069250411</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3683.34289921345</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3455.353348315433</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3234.560769171903</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6068,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.439036126372</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.36380947057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3893.679321264683</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3604.262151227723</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3376.272600329705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.272600329705</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2334.285089135946</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2334.285089135946</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2045.209862480144</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1790.525374274257</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6457,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>634.4644740681601</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C31" t="n">
-        <v>465.5282911402533</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W31" t="n">
-        <v>1264.895068939947</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X31" t="n">
-        <v>1036.90551804193</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y31" t="n">
-        <v>816.1129388983999</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6840,19 +6840,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,58 +7153,58 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>2876.560776129205</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>3473.939263755757</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>4101.537227310363</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>4653.44695754965</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.8410298377091</v>
+        <v>580.8993044876643</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>411.9631215597574</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7344,40 +7344,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U40" t="n">
-        <v>1957.373282952344</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V40" t="n">
-        <v>1702.688794746457</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W40" t="n">
-        <v>1413.271624709496</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X40" t="n">
-        <v>1185.282073811479</v>
+        <v>983.3403484614341</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.4894946679489</v>
+        <v>762.547769317904</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,19 +7484,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>101.118125215347</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>145.1398665102887</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.83923663127408</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>264.8258126177391</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>118.3918499711702</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>225.8615017253043</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>147.571561219434</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>135.8503182118947</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>145.139866510289</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>45.9909749281419</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>119.404764594808</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>123.7828069546817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>125.5054897610451</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.89210447937322</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>109.4223302771041</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>137.2878198583898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881711.3058620401</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620398</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="16">
@@ -26325,37 +26325,37 @@
         <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26432,7 +26432,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26530,40 +26530,40 @@
         <v>352672.5099929458</v>
       </c>
       <c r="E6" t="n">
-        <v>103462.2671176237</v>
+        <v>103114.8878632678</v>
       </c>
       <c r="F6" t="n">
-        <v>428874.7289249806</v>
+        <v>428527.3496706223</v>
       </c>
       <c r="G6" t="n">
-        <v>428874.7289249794</v>
+        <v>428527.3496706226</v>
       </c>
       <c r="H6" t="n">
-        <v>428874.7289249796</v>
+        <v>428527.3496706223</v>
       </c>
       <c r="I6" t="n">
-        <v>428874.7289249794</v>
+        <v>428527.3496706224</v>
       </c>
       <c r="J6" t="n">
-        <v>211343.5265277019</v>
+        <v>210996.1472733448</v>
       </c>
       <c r="K6" t="n">
-        <v>428874.7289249795</v>
+        <v>428527.3496706227</v>
       </c>
       <c r="L6" t="n">
-        <v>428874.7289249795</v>
+        <v>428527.3496706222</v>
       </c>
       <c r="M6" t="n">
-        <v>343819.7009894673</v>
+        <v>343472.3217351106</v>
       </c>
       <c r="N6" t="n">
-        <v>428874.7289249794</v>
+        <v>428527.3496706227</v>
       </c>
       <c r="O6" t="n">
-        <v>428874.7289249796</v>
+        <v>428527.3496706226</v>
       </c>
       <c r="P6" t="n">
-        <v>428874.7289249793</v>
+        <v>428527.3496706226</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.93667516389183</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>362.4386851003781</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>93.71816425318832</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>180.9075580643282</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>194.7652431262834</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>265.8801721341077</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27824,13 +27824,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>140.8876498819726</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>198.0889477142681</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>314.1269109663371</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.55792903150558</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.8009878517094</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>6.97563488453549e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-4.705712004706465e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950803</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33736,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>677.7372574190229</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>535.8585467435948</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.76383318075003</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>535.1410129745784</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899029</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>393.2623022991504</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1779313.352767971</v>
+        <v>1781073.883070756</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567548</v>
+        <v>23.79925355567413</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851069</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.67709528776665</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.9685985371972</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>240.3635537979622</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1025,7 +1025,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386362</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>64.53478580269302</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.11102768971648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>66.37422363854175</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>81.4608434426853</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>35.88641949135589</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>172.0260335000794</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1663,13 +1663,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>28.42659968729146</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0.6197054599890151</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2769,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>80.5697888787481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>171.4144753991464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>161.0175085755505</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>23.10998325716724</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4327,52 +4327,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686088</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080142</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>882.8293338103399</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>731.3215358191806</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>320.335631029573</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>309.3035849149736</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923659</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X5" t="n">
-        <v>2535.034709923659</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.034709923659</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4713,19 +4713,19 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,40 +4734,40 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
         <v>862.0164446829692</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>173.6956675186672</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.938622099438</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>853.8423354762236</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>853.8423354762236</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>853.8423354762236</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>564.7394686018672</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V10" t="n">
-        <v>310.0549803959803</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W10" t="n">
-        <v>310.0549803959803</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2410.714175003133</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026075</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,19 +5354,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C16" t="n">
-        <v>734.6461798836013</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D16" t="n">
-        <v>584.5295404712656</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E16" t="n">
-        <v>436.6164468888725</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F16" t="n">
-        <v>289.7264993909621</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G16" t="n">
-        <v>122.530400105842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>122.530400105842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="17">
@@ -5497,64 +5497,64 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2319.799627685893</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6208,46 +6208,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2023.916610740955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7168,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
         <v>388.6197041282753</v>
@@ -7320,16 +7320,16 @@
         <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7344,40 +7344,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.10824923516</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258101</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602299</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396412</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359451</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614341</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317904</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>145.1398665102887</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>52.83923663127408</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>144.8013425629422</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>45.9909749281419</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>125.5054897610451</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881711.3058620398</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907545</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.9547907537</v>
-      </c>
       <c r="M2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26432,7 +26432,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346469</v>
+        <v>-976072.2357346471</v>
       </c>
       <c r="C6" t="n">
         <v>352672.5099929457</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929458</v>
+        <v>352672.5099929457</v>
       </c>
       <c r="E6" t="n">
-        <v>103114.8878632678</v>
+        <v>103427.5291921886</v>
       </c>
       <c r="F6" t="n">
-        <v>428527.3496706223</v>
+        <v>428839.990999544</v>
       </c>
       <c r="G6" t="n">
-        <v>428527.3496706226</v>
+        <v>428839.9909995438</v>
       </c>
       <c r="H6" t="n">
-        <v>428527.3496706223</v>
+        <v>428839.9909995438</v>
       </c>
       <c r="I6" t="n">
-        <v>428527.3496706224</v>
+        <v>428839.9909995438</v>
       </c>
       <c r="J6" t="n">
-        <v>210996.1472733448</v>
+        <v>211308.7886022663</v>
       </c>
       <c r="K6" t="n">
-        <v>428527.3496706227</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="L6" t="n">
-        <v>428527.3496706222</v>
+        <v>428839.9909995439</v>
       </c>
       <c r="M6" t="n">
-        <v>343472.3217351106</v>
+        <v>343784.9630640321</v>
       </c>
       <c r="N6" t="n">
-        <v>428527.3496706227</v>
+        <v>428839.9909995439</v>
       </c>
       <c r="O6" t="n">
-        <v>428527.3496706226</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="P6" t="n">
-        <v>428527.3496706226</v>
+        <v>428839.9909995436</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003781</v>
+        <v>362.4386851003795</v>
       </c>
     </row>
     <row r="3">
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.88174980530007</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>180.9075580643282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194.7652431262834</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>54.24421058935823</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282312</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>346.3869398507604</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>314.1269109663371</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.55792903150558</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>204.7509947629276</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-4.705712004706465e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>513.0745614164389</v>
+        <v>248.7449369209182</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>374.5201816365647</v>
+        <v>110.1905571410441</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899029</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
